--- a/WIP/Documents/UseCase Diagram/BSN_List of UseCase.xlsx
+++ b/WIP/Documents/UseCase Diagram/BSN_List of UseCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="277">
   <si>
     <t>Use Case No.</t>
   </si>
@@ -76,12 +76,6 @@
   </si>
   <si>
     <t>Xóa bình luận</t>
-  </si>
-  <si>
-    <t>Follow other account</t>
-  </si>
-  <si>
-    <t>Theo dõi một tài khoản khác</t>
   </si>
   <si>
     <t>Gửi tin nhắn đến một tài khoản khác</t>
@@ -379,9 +373,6 @@
     <t>Get Notification</t>
   </si>
   <si>
-    <t>Interactions</t>
-  </si>
-  <si>
     <t>Publishers Management</t>
   </si>
   <si>
@@ -605,9 +596,6 @@
   </si>
   <si>
     <t>Follow other account to get their new post on new-feed.</t>
-  </si>
-  <si>
-    <t>Send message to other accounts.</t>
   </si>
   <si>
     <t>Report other accounts.</t>
@@ -760,9 +748,6 @@
     <t>Delete a comment</t>
   </si>
   <si>
-    <t>Send message</t>
-  </si>
-  <si>
     <t>Follow user account</t>
   </si>
   <si>
@@ -879,9 +864,6 @@
   </si>
   <si>
     <t>UC061</t>
-  </si>
-  <si>
-    <t>UC062</t>
   </si>
   <si>
     <t>Edit  group information</t>
@@ -1065,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,9 +1133,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,54 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1512,7 +1497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K86"/>
+  <dimension ref="C5:K85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1525,8 +1510,8 @@
     <col min="6" max="6" width="54.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="10" max="10" width="61.85546875" customWidth="1"/>
+    <col min="11" max="11" width="59.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
@@ -1556,87 +1541,87 @@
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="44" t="s">
-        <v>176</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="H6" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+      <c r="H6" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+    </row>
+    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C7" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="H8" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="29"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="46"/>
-      <c r="H9" s="28" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+      <c r="H9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+    </row>
+    <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="35" t="s">
         <v>108</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>6</v>
@@ -1645,13 +1630,13 @@
         <v>5</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>257</v>
+        <v>108</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>252</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>6</v>
@@ -1659,9 +1644,9 @@
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D11" s="36"/>
+        <v>109</v>
+      </c>
+      <c r="D11" s="33"/>
       <c r="E11" s="5" t="s">
         <v>7</v>
       </c>
@@ -1669,9 +1654,9 @@
         <v>8</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="29"/>
+        <v>109</v>
+      </c>
+      <c r="I11" s="45"/>
       <c r="J11" s="19" t="s">
         <v>7</v>
       </c>
@@ -1679,143 +1664,143 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="75" x14ac:dyDescent="0.25">
       <c r="C12" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="36"/>
+        <v>110</v>
+      </c>
+      <c r="D12" s="33"/>
       <c r="E12" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="45"/>
+      <c r="J12" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="45"/>
+      <c r="J13" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="45"/>
+      <c r="J14" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="C15" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>253</v>
+        <v>121</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="47" t="s">
-        <v>178</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C16" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="I16" s="45"/>
       <c r="J16" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="41"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="29"/>
+        <v>123</v>
+      </c>
+      <c r="I17" s="45"/>
       <c r="J17" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="34"/>
+        <v>123</v>
+      </c>
+      <c r="D18" s="36"/>
       <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
@@ -1823,21 +1808,21 @@
         <v>15</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="29"/>
+        <v>124</v>
+      </c>
+      <c r="I18" s="45"/>
       <c r="J18" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="34"/>
+        <v>124</v>
+      </c>
+      <c r="D19" s="36"/>
       <c r="E19" s="5" t="s">
         <v>17</v>
       </c>
@@ -1845,31 +1830,31 @@
         <v>16</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="I19" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="I19" s="45"/>
       <c r="J19" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="34"/>
+        <v>125</v>
+      </c>
+      <c r="D20" s="36"/>
       <c r="E20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H20" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="29"/>
+        <v>126</v>
+      </c>
+      <c r="I20" s="45"/>
       <c r="J20" s="19" t="s">
         <v>13</v>
       </c>
@@ -1879,9 +1864,9 @@
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="34"/>
+        <v>126</v>
+      </c>
+      <c r="D21" s="36"/>
       <c r="E21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1889,21 +1874,21 @@
         <v>18</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" s="29"/>
+        <v>127</v>
+      </c>
+      <c r="I21" s="45"/>
       <c r="J21" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="34"/>
+        <v>127</v>
+      </c>
+      <c r="D22" s="36"/>
       <c r="E22" s="5" t="s">
         <v>14</v>
       </c>
@@ -1911,1065 +1896,1047 @@
         <v>19</v>
       </c>
       <c r="H22" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="29" t="s">
-        <v>254</v>
+        <v>128</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>249</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="29"/>
+      <c r="H23" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="45"/>
       <c r="J23" s="19" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="7" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C27" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="45"/>
+      <c r="J27" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="36"/>
+      <c r="E28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="I28" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" s="19" t="s">
+      <c r="K28" s="19" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="36"/>
-      <c r="E26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C28" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="36"/>
+      <c r="E29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="48"/>
+      <c r="J29" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="25"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I30" s="48"/>
+      <c r="J30" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="48"/>
+      <c r="J31" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D32" s="36"/>
+      <c r="E32" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="25"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="22"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="31"/>
+      <c r="H32" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="48"/>
       <c r="J32" s="19" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D33" s="36"/>
+      <c r="E33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="F33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="48"/>
+      <c r="J33" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="31"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" s="48"/>
       <c r="J34" s="19" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="48"/>
+      <c r="J35" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="25"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="H36" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="48"/>
+      <c r="J37" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="21" t="s">
+      <c r="D38" s="36"/>
+      <c r="E38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="21" t="s">
+      <c r="I38" s="48"/>
+      <c r="J38" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="25"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="7"/>
+      <c r="H39" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="25"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="H37" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="K37" s="22"/>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>205</v>
-      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="K39" s="22"/>
     </row>
     <row r="40" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="25"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="27"/>
       <c r="F40" s="7"/>
-      <c r="H40" s="21" t="s">
+      <c r="H40" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I40" s="49"/>
+      <c r="J40" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="16"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="5"/>
+      <c r="H42" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="I42" s="45"/>
+      <c r="J42" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K42" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="I40" s="31"/>
-      <c r="J40" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="3:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="25"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="7"/>
-      <c r="H41" s="21" t="s">
+      <c r="I43" s="45"/>
+      <c r="J43" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="H44" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C42" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H42" s="21" t="s">
+      <c r="I44" s="45"/>
+      <c r="J44" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="I42" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="J42" s="19" t="s">
+      <c r="I45" s="45"/>
+      <c r="J45" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C46" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="16"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="5"/>
-      <c r="H43" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="K43" s="20" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C45" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="H45" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H46" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>222</v>
-      </c>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
     </row>
     <row r="47" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="I48" s="45"/>
+      <c r="J48" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-    </row>
-    <row r="48" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C48" s="15" t="s">
+      <c r="D49" s="36"/>
+      <c r="E49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="45"/>
+      <c r="J49" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C50" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="J48" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="5" t="s">
         <v>100</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H50" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="I50" s="45"/>
+      <c r="J50" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="25"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="H51" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="I51" s="45"/>
+      <c r="J51" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="I52" s="45"/>
+      <c r="J52" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K52" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="25"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C51" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="H51" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I51" s="29"/>
-      <c r="J51" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C52" s="25"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="H52" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I52" s="29"/>
-      <c r="J52" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="K52" s="22"/>
-    </row>
-    <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C53" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H53" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="29"/>
-      <c r="J53" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>210</v>
+      <c r="I53" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="25"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="29" t="s">
-        <v>119</v>
-      </c>
+      <c r="D54" s="36"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="H54" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="45"/>
       <c r="J54" s="22" t="s">
         <v>89</v>
       </c>
       <c r="K54" s="22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="25"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="H55" s="21" t="s">
+      <c r="D55" s="36"/>
+      <c r="E55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H55" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I55" s="45"/>
+      <c r="J55" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" s="45"/>
+      <c r="J57" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" s="36"/>
+      <c r="E58" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="29"/>
-      <c r="J55" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" s="22" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="3:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="25"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="7" t="s">
+      <c r="I58" s="45"/>
+      <c r="J58" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="K58" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="36"/>
+      <c r="E59" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="I59" s="45"/>
+      <c r="J59" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="25"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="H60" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" s="45"/>
+      <c r="J60" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="36"/>
+      <c r="E61" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H56" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="I56" s="29"/>
-      <c r="J56" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="K56" s="22"/>
-    </row>
-    <row r="57" spans="3:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="K57" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="21" t="s">
+      <c r="H61" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="I58" s="29"/>
-      <c r="J58" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="D59" s="34"/>
-      <c r="E59" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I59" s="29"/>
-      <c r="J59" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D60" s="34"/>
-      <c r="E60" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="I60" s="29"/>
-      <c r="J60" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="25"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="H61" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="I61" s="29"/>
-      <c r="J61" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="K61" s="22"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="K61" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="34"/>
+        <v>162</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="E62" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="I62" s="29"/>
+        <v>71</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" s="45" t="s">
+        <v>117</v>
+      </c>
       <c r="J62" s="19" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K62" s="19" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="D63" s="35" t="s">
-        <v>117</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="D63" s="33"/>
       <c r="E63" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H63" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>120</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="45"/>
       <c r="J63" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K63" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" s="36"/>
+        <v>164</v>
+      </c>
+      <c r="D64" s="34"/>
       <c r="E64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H64" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="I64" s="29"/>
+        <v>73</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="I64" s="45"/>
       <c r="J64" s="19" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="K64" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D65" s="37"/>
-      <c r="E65" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="I65" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="I65" s="45"/>
       <c r="J65" s="19" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="K65" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>119</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D66" s="43"/>
       <c r="E66" s="7" t="s">
         <v>89</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="I66" s="29"/>
+      <c r="H66" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>114</v>
+      </c>
       <c r="J66" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K66" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="42"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>115</v>
+      </c>
       <c r="E67" s="7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="I67" s="29" t="s">
-        <v>117</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67" s="45"/>
       <c r="J67" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K67" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I68" s="45"/>
+      <c r="J68" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="3:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="I68" s="29"/>
-      <c r="J68" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="K68" s="19" t="s">
+    <row r="69" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="H69" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="I69" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J69" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" s="19" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="3:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="I69" s="29"/>
-      <c r="J69" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="K69" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
       <c r="F70"/>
-      <c r="H70" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="I70" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J70" s="22" t="s">
-        <v>267</v>
+      <c r="H70" s="46"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="19" t="s">
+        <v>263</v>
       </c>
       <c r="K70" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
       <c r="F71"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="29"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K71" s="19" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="60" x14ac:dyDescent="0.25">
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72"/>
       <c r="F72"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="29"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K72" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="73" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73"/>
       <c r="F73"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="29"/>
-      <c r="J73" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74"/>
@@ -3043,48 +3010,42 @@
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-    </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="I56:I61"/>
+    <mergeCell ref="I62:I65"/>
+    <mergeCell ref="I66:I68"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="I10:I14"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I28:I40"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D37:D43"/>
+    <mergeCell ref="D23:D27"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="D48:D56"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D15:D22"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="D63:D65"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="D29:D36"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D57"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I29:I41"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="I70:I73"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I54:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
